--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject2.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject2.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>0</v>
+        <v>0.95605681099017348</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>0.67674428858606617</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -251,10 +251,10 @@
         <v>0</v>
       </c>
       <c r="AP1" s="0">
-        <v>0</v>
+        <v>0.65427691697824464</v>
       </c>
       <c r="AQ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.69178007606457625</v>
       </c>
     </row>
     <row r="2">
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0</v>
+        <v>0.52931793808257577</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>0</v>
+        <v>0.79891685449960226</v>
       </c>
       <c r="AT2" s="0">
-        <v>0</v>
+        <v>0.75634126527468126</v>
       </c>
       <c r="AU2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0</v>
+        <v>0.8750526916903536</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.9186063459054189</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>0</v>
+        <v>0.85657572586668196</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.81039669672887604</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.66071887444422028</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0</v>
+        <v>0.88630552417616293</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>0</v>
+        <v>0.79140352783472878</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>0.87850911722530656</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0</v>
+        <v>0.50075960550239129</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0</v>
+        <v>0.899661531606059</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.67804841143724426</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0</v>
+        <v>0.74399717005803045</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0</v>
+        <v>0.85020063625482456</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0</v>
+        <v>0.72289525465878346</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.68305045175109813</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>0</v>
+        <v>0.8150112717316228</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0</v>
+        <v>0.92634681423100873</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="0">
-        <v>1</v>
+        <v>0.99993846785807095</v>
       </c>
       <c r="AN6" s="0">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>0</v>
+        <v>0.85862725987509836</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="0">
-        <v>0</v>
+        <v>0.83244036482212935</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>0</v>
+        <v>0.78684980603431665</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>0</v>
+        <v>0.57550934347524541</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>0</v>
+        <v>0.92370891964023483</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0</v>
+        <v>0.7650618831081839</v>
       </c>
       <c r="AK8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0</v>
+        <v>0.99947629405340677</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.94918478635686609</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>0.93605045077781313</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0</v>
+        <v>0.88106398881894621</v>
       </c>
       <c r="M9" s="0">
-        <v>0</v>
+        <v>0.97736491258943881</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0</v>
+        <v>0.58700562019012192</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.81924576598244814</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0</v>
+        <v>0.57515833213092482</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>0.789843188336119</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.80474313207529402</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>0.79750728428258266</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>1</v>
+        <v>0.50872581431434982</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.75388502005869362</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>0.74145257400508835</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.85616196611452111</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.58379525891434902</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0</v>
+        <v>0.54459251587266422</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>0.9749784704114508</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0.81244661634471249</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>0</v>
+        <v>0.84644752087620989</v>
       </c>
       <c r="BJ13" s="0">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0</v>
+        <v>0.9720812740714424</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.94731625273412678</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0</v>
+        <v>0.62938343877873115</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0.9851709430570833</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>0</v>
+        <v>0.94947068275559032</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
@@ -3060,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0</v>
+        <v>0.58933046823391577</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3096,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="AC15" s="0">
-        <v>0</v>
+        <v>0.69097971052977347</v>
       </c>
       <c r="AD15" s="0">
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>0.54595720870755238</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="0">
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.81268069023056178</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="0">
-        <v>0</v>
+        <v>0.67357912988562529</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>0</v>
+        <v>0.74988426920904061</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>0</v>
+        <v>0.67856475519298487</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>0.55553449139980915</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>0</v>
+        <v>0.93662791704771653</v>
       </c>
       <c r="AQ17" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0</v>
+        <v>0.95007918060826124</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.82158687815203424</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.99542873213929561</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>0</v>
+        <v>0.8260196693077787</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.89736286147933808</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>0</v>
+        <v>0.96449040824178867</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -3950,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="AM19" s="0">
-        <v>0</v>
+        <v>0.56704853359883356</v>
       </c>
       <c r="AN19" s="0">
-        <v>0</v>
+        <v>0.84185626124314838</v>
       </c>
       <c r="AO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.70708461480030693</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.78573140683082876</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.65637744494195838</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>0</v>
+        <v>0.83271726584818406</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0</v>
+        <v>0.98006485479231631</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="BP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0.69367929017170793</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>0</v>
+        <v>0.98305823006270587</v>
       </c>
       <c r="AA21" s="0">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="0">
-        <v>0</v>
+        <v>0.97616286682207032</v>
       </c>
       <c r="BC21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>0.57068717119643042</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0</v>
+        <v>0.83459500883805116</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.65532971764400805</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4544,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>1</v>
+        <v>0.62736428815002532</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>0.79130648888745636</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.51503083297814567</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.82515131447028611</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>0</v>
+        <v>0.78232445393393202</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.82962100979162456</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.93934591462818284</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0</v>
+        <v>0.50213412102617594</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0</v>
+        <v>0.6741935706811284</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5135,19 +5135,19 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.69951784133464534</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.76591360068104053</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5168,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>0</v>
+        <v>0.6701597855550786</v>
       </c>
       <c r="AH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>0.98923183370076029</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5332,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>0.53045841234332258</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0</v>
+        <v>0.74217749178422232</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5350,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.60366984851504624</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>0</v>
+        <v>0.61580169646369365</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.8919057222861515</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>0</v>
+        <v>0.81063351775457493</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0</v>
+        <v>0.80052596915261731</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0</v>
+        <v>0.88842632974020097</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>0</v>
+        <v>0.93072211097726165</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="0">
-        <v>0</v>
+        <v>0.96835137814688987</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.85947505198060814</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.79242957579879714</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6019,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="AP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="0">
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0</v>
+        <v>0.79821483352513067</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="0">
-        <v>0</v>
+        <v>0.70188767705240496</v>
       </c>
       <c r="BC29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.80303791486654585</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6102,22 +6102,22 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.59209156189274559</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>0.76704948934675188</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.93599047524654955</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.99673888302523461</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0</v>
+        <v>0.97010125059970664</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>1</v>
+        <v>0.78379978158873098</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6350,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0</v>
+        <v>0.91613960328508348</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>0</v>
+        <v>0.53770653579817784</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.99014400348880582</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.77482170380755289</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>0</v>
+        <v>0.80130953734613253</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>0</v>
+        <v>0.93785430459514274</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
@@ -6664,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>0</v>
+        <v>0.80896170878615226</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>0</v>
+        <v>0.8898914972348364</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0</v>
+        <v>0.58307513192255112</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>0.88723554492911061</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0</v>
+        <v>0.92444826752401066</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6998,19 +6998,19 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.96024548807269094</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.65799801356643006</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>0</v>
+        <v>0.7393732863465019</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="0">
         <v>0</v>
@@ -7276,10 +7276,10 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0</v>
+        <v>0.6707508330259202</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0</v>
+        <v>0.85536998904668582</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.84629334150465119</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="0">
-        <v>0</v>
+        <v>0.74628070279051728</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -7419,13 +7419,13 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0</v>
+        <v>0.54358727534365769</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.99265807194982392</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>0</v>
+        <v>0.69896920014730068</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7497,13 +7497,13 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>0</v>
+        <v>0.67068074598583172</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="0">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>0.81154844542648996</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.78173761337606573</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.92114131128539367</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.68470519252370754</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0</v>
+        <v>0.61083266399339031</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7885,13 +7885,13 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>0</v>
+        <v>0.70947240214933061</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0</v>
+        <v>0.95119498709856165</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.81077276855865099</v>
       </c>
     </row>
     <row r="39">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>1</v>
+        <v>0.83601612808715986</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="0">
-        <v>0</v>
+        <v>0.92321492026043084</v>
       </c>
       <c r="T39" s="0">
         <v>0</v>
@@ -8049,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0.54167585695251441</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>0</v>
+        <v>0.99269672224092231</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.96796824006150439</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>0</v>
+        <v>0.9636372270849326</v>
       </c>
       <c r="T40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.60869619400915465</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>0</v>
+        <v>0.63762660147957284</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.70447908809699689</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8506,10 +8506,10 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
-        <v>0</v>
+        <v>0.87960400921164328</v>
       </c>
       <c r="AW41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.84089785349318946</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0</v>
+        <v>0.84579526843393316</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8569,12 +8569,12 @@
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>0</v>
+        <v>0.89640193583123118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0</v>
+        <v>0.92907741448500614</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
@@ -8583,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>0.80065975539328971</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0</v>
+        <v>0.50542326615506972</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.85002648961834493</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.85965931925813832</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AY42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>0</v>
+        <v>0.65045800200490311</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0</v>
+        <v>0.69976571909869167</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.76530616086382852</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.51206171316054283</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.97384189302925317</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9070,13 +9070,13 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0</v>
+        <v>0.99089016184611389</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.73103634221364577</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9121,16 +9121,16 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.57600436850273329</v>
       </c>
       <c r="AU44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>0</v>
+        <v>0.80113235045040687</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
+        <v>0.51922536366922734</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>0</v>
+        <v>0.94016429542272961</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.72079047914217442</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>0.53251666509188911</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.59047916881659734</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.87581730578773032</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0</v>
+        <v>0.74154921476480595</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>0</v>
+        <v>0.91847448439131774</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.71396972246907353</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9551,10 +9551,10 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.91065342918865477</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0.66082108681280027</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>0</v>
+        <v>0.7706235120191347</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0.66242840327444674</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.70485784865617007</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>0</v>
+        <v>0.7427595445287708</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>0.96784219213631351</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
       </c>
       <c r="AD48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.98162952559472139</v>
       </c>
       <c r="AL48" s="0">
-        <v>0</v>
+        <v>0.53589970098783613</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="AO48" s="0">
-        <v>0</v>
+        <v>0.60691524102005845</v>
       </c>
       <c r="AP48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.84603866053321974</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0</v>
+        <v>0.56294358117329601</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>0</v>
+        <v>0.74793852726944454</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.53189578300405271</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0</v>
+        <v>0.5786668089812983</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0</v>
+        <v>0.708071911197246</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0</v>
+        <v>0.89775367754060142</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.73994822367470769</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.85431441136142805</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>0</v>
+        <v>0.96287669757544447</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10548,10 +10548,10 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.54061535577388775</v>
       </c>
       <c r="AP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>0</v>
+        <v>0.55012683652632277</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10721,16 +10721,16 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0</v>
+        <v>0.98680635196275746</v>
       </c>
       <c r="AE52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>0</v>
+        <v>0.86128788468119188</v>
       </c>
       <c r="AG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10778,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.75733614605364308</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.94632043520310072</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>0</v>
+        <v>0.86023223060878484</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.75391268153871249</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10882,10 +10882,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0</v>
+        <v>0.56618992606512353</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0</v>
+        <v>0.90806767610093597</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.77948033670757733</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>0</v>
+        <v>0.60713436935069753</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0</v>
+        <v>0.63549358411596057</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11160,10 +11160,10 @@
         <v>0</v>
       </c>
       <c r="AM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.60621053009261505</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="BE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>0.60459947341364373</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>0</v>
+        <v>0.90817647851763805</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.62364396716829418</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>0.82853070288652342</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11560,10 +11560,10 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>0</v>
+        <v>0.99353179585242213</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>0</v>
+        <v>0.64122094240609773</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11650,13 +11650,13 @@
         <v>0</v>
       </c>
       <c r="BM56" s="0">
-        <v>0</v>
+        <v>0.69655516068184331</v>
       </c>
       <c r="BN56" s="0">
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11772,19 +11772,19 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.79514766203162313</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0</v>
+        <v>0.95544517574342325</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>0</v>
+        <v>0.86551626826008721</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11808,13 +11808,13 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>0</v>
+        <v>0.85079417707092087</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11823,13 +11823,13 @@
         <v>0</v>
       </c>
       <c r="BB57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.59526248915940028</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11888,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0</v>
+        <v>0.96198020115696448</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>0</v>
+        <v>0.81818704679050702</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -12044,13 +12044,13 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.61625854179573158</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
       </c>
       <c r="BI58" s="0">
-        <v>1</v>
+        <v>0.8843436420121763</v>
       </c>
       <c r="BJ58" s="0">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="BP58" s="0">
-        <v>0</v>
+        <v>0.78910461430001488</v>
       </c>
     </row>
     <row r="59">
@@ -12088,13 +12088,13 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0</v>
+        <v>0.80066693117709908</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>0</v>
+        <v>0.78228649898094393</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>0</v>
+        <v>0.9940917822325549</v>
       </c>
       <c r="U59" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.59856834425717054</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="AF60" s="0">
-        <v>0</v>
+        <v>0.97479179683243855</v>
       </c>
       <c r="AG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>0</v>
+        <v>0.50268054798168726</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.64361192089663111</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0.7807317328011012</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>0</v>
+        <v>0.88128451719142542</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0</v>
+        <v>0.62191619593054526</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12659,10 +12659,10 @@
         <v>0</v>
       </c>
       <c r="BF61" s="0">
-        <v>1</v>
+        <v>0.62665139850033458</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.72649966761432561</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>1</v>
+        <v>0.96916293635565343</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.76913729579706303</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.67349789740398491</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.606360954828562</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.93039458942818343</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>0</v>
+        <v>0.56678477663975346</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0</v>
+        <v>0.53673308524453511</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.62517765505366252</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13109,13 +13109,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.64081868153298338</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0</v>
+        <v>0.52088867298163188</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.95220872361623743</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0</v>
+        <v>0.87772370255667531</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.97410008387997615</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>0</v>
+        <v>0.62102200341535796</v>
       </c>
       <c r="BE65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0</v>
+        <v>0.91228405543651647</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.96171705108290795</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.73570882985725761</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>0</v>
+        <v>0.87228656153770445</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0.96855624429095588</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL66" s="0">
         <v>0</v>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>0</v>
+        <v>0.93956841485179288</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>0</v>
+        <v>0.77628103981040741</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.67787671659837456</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13981,13 +13981,13 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.50439315158657694</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14050,13 +14050,13 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>0</v>
+        <v>0.95301584389616456</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14101,10 +14101,10 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0</v>
+        <v>0.65840699365030586</v>
       </c>
       <c r="BG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject2.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject2.xlsx
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.67674428858606617</v>
+        <v>0.84629334150465119</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -251,7 +251,7 @@
         <v>0</v>
       </c>
       <c r="AP1" s="0">
-        <v>0.65427691697824464</v>
+        <v>0.92907741448500614</v>
       </c>
       <c r="AQ1" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.52931793808257577</v>
+        <v>0.59209156189274559</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.81039669672887604</v>
+        <v>0.96796824006150439</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.66071887444422028</v>
+        <v>0.75391268153871249</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>0.79140352783472878</v>
+        <v>0.93956841485179288</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0.50075960550239129</v>
+        <v>0.57068717119643042</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.67804841143724426</v>
+        <v>0.68305045175109813</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.74399717005803045</v>
+        <v>0.80065975539328971</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0.72289525465878346</v>
+        <v>0.80066693117709908</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>0.85862725987509836</v>
+        <v>0.88128451719142542</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.78684980603431665</v>
+        <v>0.94016429542272961</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>0.57550934347524541</v>
+        <v>0.78228649898094393</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93605045077781313</v>
+        <v>0.95605681099017348</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.58700562019012192</v>
+        <v>0.88723554492911061</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.81924576598244814</v>
+        <v>0.85616196611452111</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.789843188336119</v>
+        <v>0.98923183370076029</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0.80474313207529402</v>
+        <v>0.96171705108290795</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.79750728428258266</v>
+        <v>0.87850911722530656</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.50872581431434982</v>
+        <v>0.78379978158873098</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0.74145257400508835</v>
+        <v>0.88106398881894621</v>
       </c>
       <c r="J12" s="0">
         <v>0.85616196611452111</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.58379525891434902</v>
+        <v>0.94731625273412678</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0.54459251587266422</v>
+        <v>0.56678477663975346</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0.9749784704114508</v>
+        <v>0.97736491258943881</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0.62938343877873115</v>
+        <v>0.95007918060826124</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0.58933046823391577</v>
+        <v>0.8260196693077787</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3096,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="AC15" s="0">
-        <v>0.69097971052977347</v>
+        <v>0.96835137814688987</v>
       </c>
       <c r="AD15" s="0">
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.54595720870755238</v>
+        <v>0.91613960328508348</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="0">
-        <v>0.67357912988562529</v>
+        <v>0.83459500883805116</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>0.74988426920904061</v>
+        <v>0.91847448439131774</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0.55553449139980915</v>
+        <v>0.57515833213092482</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.82158687815203424</v>
+        <v>0.89736286147933808</v>
       </c>
       <c r="T18" s="0">
         <v>0.99542873213929561</v>
@@ -3950,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AM19" s="0">
-        <v>0.56704853359883356</v>
+        <v>0.92321492026043084</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.84185626124314838</v>
+        <v>0.9636372270849326</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.70708461480030693</v>
+        <v>0.99542873213929561</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0.65637744494195838</v>
+        <v>0.97384189302925317</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>0.83271726584818406</v>
+        <v>0.9940917822325549</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.69367929017170793</v>
+        <v>0.9851709430570833</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>0.62736428815002532</v>
+        <v>0.96916293635565343</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0.79130648888745636</v>
+        <v>0.85657572586668196</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.51503083297814567</v>
+        <v>0.65532971764400805</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>0.78232445393393202</v>
+        <v>0.81818704679050702</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.50213412102617594</v>
+        <v>0.69976571909869167</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.69951784133464534</v>
+        <v>0.82515131447028611</v>
       </c>
       <c r="X25" s="0">
-        <v>0.76591360068104053</v>
+        <v>0.82962100979162456</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>0.6701597855550786</v>
+        <v>0.92444826752401066</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5332,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0.53045841234332258</v>
+        <v>0.96449040824178867</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0.74217749178422232</v>
+        <v>0.98305823006270587</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.60366984851504624</v>
+        <v>0.8919057222861515</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0.80052596915261731</v>
+        <v>0.94947068275559032</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>0.93072211097726165</v>
+        <v>0.96784219213631351</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.85947505198060814</v>
+        <v>0.93599047524654955</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.79242957579879714</v>
+        <v>0.99014400348880582</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.79821483352513067</v>
+        <v>0.99089016184611389</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0.80303791486654585</v>
+        <v>0.97410008387997615</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0.76704948934675188</v>
+        <v>0.8150112717316228</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0.97010125059970664</v>
+        <v>0.98680635196275746</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>0.53770653579817784</v>
+        <v>0.81063351775457493</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.99014400348880582</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.77482170380755289</v>
+        <v>0.99673888302523461</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>0.80896170878615226</v>
+        <v>0.86128788468119188</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>0.8898914972348364</v>
+        <v>0.97479179683243855</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0.58307513192255112</v>
+        <v>0.92634681423100873</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.96024548807269094</v>
+        <v>0.99265807194982392</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0.65799801356643006</v>
+        <v>0.73570882985725761</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>0.7393732863465019</v>
+        <v>0.80130953734613253</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0.6707508330259202</v>
+        <v>0.89775367754060142</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="0">
-        <v>0.74628070279051728</v>
+        <v>0.7650618831081839</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.54358727534365769</v>
+        <v>0.88842632974020097</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>0.67068074598583172</v>
+        <v>0.99353179585242213</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>0.81154844542648996</v>
+        <v>0.899661531606059</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0.78173761337606573</v>
+        <v>0.78573140683082876</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0.92114131128539367</v>
+        <v>0.98162952559472139</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0.68470519252370754</v>
+        <v>0.79514766203162313</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0.61083266399339031</v>
+        <v>0.83244036482212935</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0.83601612808715986</v>
+        <v>0.99993846785807095</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0.54167585695251441</v>
+        <v>0.66242840327444674</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0.60869619400915465</v>
+        <v>0.93934591462818284</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>0.63762660147957284</v>
+        <v>0.69896920014730068</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0.70447908809699689</v>
+        <v>0.73994822367470769</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0.84579526843393316</v>
+        <v>0.86551626826008721</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>0.89640193583123118</v>
+        <v>0.95301584389616456</v>
       </c>
     </row>
     <row r="42">
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.50542326615506972</v>
+        <v>0.93662791704771653</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>0.65045800200490311</v>
+        <v>0.90817647851763805</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.76530616086382852</v>
+        <v>0.85002648961834493</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.51206171316054283</v>
+        <v>0.59047916881659734</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.73103634221364577</v>
+        <v>0.85965931925813832</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.57600436850273329</v>
+        <v>0.71396972246907353</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>0.51922536366922734</v>
+        <v>0.79891685449960226</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0.72079047914217442</v>
+        <v>0.75388502005869362</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0.53251666509188911</v>
+        <v>0.6741935706811284</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0.74154921476480595</v>
+        <v>0.75634126527468126</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0.66082108681280027</v>
+        <v>0.81244661634471249</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>0.7706235120191347</v>
+        <v>0.93785430459514274</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.70485784865617007</v>
+        <v>0.84603866053321974</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0.98162952559472139</v>
       </c>
       <c r="AL48" s="0">
-        <v>0.53589970098783613</v>
+        <v>0.70947240214933061</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="AO48" s="0">
-        <v>0.60691524102005845</v>
+        <v>0.87960400921164328</v>
       </c>
       <c r="AP48" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.56294358117329601</v>
+        <v>0.61580169646369365</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>0.74793852726944454</v>
+        <v>0.80113235045040687</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0.53189578300405271</v>
+        <v>0.75733614605364308</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0.5786668089812983</v>
+        <v>0.85079417707092087</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0.708071911197246</v>
+        <v>0.85020063625482456</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.85431441136142805</v>
+        <v>0.94632043520310072</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0.54061535577388775</v>
+        <v>0.84089785349318946</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0.56618992606512353</v>
+        <v>0.67856475519298487</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0.90806767610093597</v>
+        <v>0.95119498709856165</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0.77948033670757733</v>
+        <v>0.91065342918865477</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>0.60713436935069753</v>
+        <v>0.97616286682207032</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.63549358411596057</v>
+        <v>0.70188767705240496</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0.60621053009261505</v>
+        <v>0.87581730578773032</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0.60459947341364373</v>
+        <v>0.88630552417616293</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0.82853070288652342</v>
+        <v>0.8750526916903536</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>0.64122094240609773</v>
+        <v>0.7427595445287708</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0.95544517574342325</v>
+        <v>0.99269672224092231</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.59526248915940028</v>
+        <v>0.62364396716829418</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0.96198020115696448</v>
+        <v>0.99947629405340677</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.59856834425717054</v>
+        <v>0.61625854179573158</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>0.50268054798168726</v>
+        <v>0.55012683652632277</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.64361192089663111</v>
+        <v>0.76913729579706303</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>0.7807317328011012</v>
+        <v>0.96855624429095588</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0.62191619593054526</v>
+        <v>0.84644752087620989</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BF61" s="0">
-        <v>0.62665139850033458</v>
+        <v>0.8843436420121763</v>
       </c>
       <c r="BG61" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0.72649966761432561</v>
+        <v>0.81268069023056178</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.67349789740398491</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.606360954828562</v>
+        <v>0.95220872361623743</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0.93039458942818343</v>
+        <v>0.94918478635686609</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0.53673308524453511</v>
+        <v>0.85536998904668582</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.62517765505366252</v>
+        <v>0.67349789740398491</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.64081868153298338</v>
+        <v>0.9186063459054189</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0.52088867298163188</v>
+        <v>0.98006485479231631</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0.87772370255667531</v>
+        <v>0.9720812740714424</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>0.62102200341535796</v>
+        <v>0.69655516068184331</v>
       </c>
       <c r="BE65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0.91228405543651647</v>
+        <v>0.92370891964023483</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>0.87228656153770445</v>
+        <v>0.96287669757544447</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>0.77628103981040741</v>
+        <v>0.86023223060878484</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.67787671659837456</v>
+        <v>0.69178007606457625</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0.50439315158657694</v>
+        <v>0.81077276855865099</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0.65840699365030586</v>
+        <v>0.78910461430001488</v>
       </c>
       <c r="BG68" s="0">
         <v>0</v>
